--- a/测试文件及部分代码逻辑/test2.xlsx
+++ b/测试文件及部分代码逻辑/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\安永\02内部自研项目\香港税\XBRL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\allproject\ixbrl vue2\testproject\测试文件及部分代码逻辑\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E0CBD2-2531-467A-995E-063EAEA7289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF2A51-AE80-4219-911C-A3B2F07D8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5610" yWindow="-16297" windowWidth="28995" windowHeight="15675" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__IRD_TC_Preliminary Edition" sheetId="23" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="__Contexts" sheetId="20" r:id="rId3"/>
     <sheet name="__TC_Taxonomy_Core" sheetId="22" r:id="rId4"/>
     <sheet name="__Mandatory" sheetId="24" r:id="rId5"/>
-    <sheet name="InfoSchema" sheetId="25" r:id="rId6"/>
+    <sheet name="__InfoSchema" sheetId="25" r:id="rId6"/>
     <sheet name="__XbrlMatch" sheetId="16" r:id="rId7"/>
     <sheet name="A" sheetId="1" r:id="rId8"/>
     <sheet name="A2" sheetId="2" r:id="rId9"/>
@@ -44,18 +44,18 @@
     <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">__InfoSchema!$B$1:$E$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'__IRD_TC_Preliminary Edition'!$A$1:$B$605</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">__ISO4217!$A$1:$E$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">__Mandatory!$A$1:$H$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">__TC_Taxonomy_Core!$A$1:$M$548</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">__XbrlMatch!$A$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">InfoSchema!$B$1:$E$33</definedName>
-    <definedName name="AccountingPeriodEndDate">MID(InfoSchema!$C$12,7,4)&amp;"-"&amp;MID(InfoSchema!$C$12,4,2)&amp;"-"&amp;MID(InfoSchema!$C$12,1,2)</definedName>
-    <definedName name="AccountingPeriodStartDate">MID(InfoSchema!$C$11,7,4)&amp;"-"&amp;MID(InfoSchema!$C$11,4,2)&amp;"-"&amp;MID(InfoSchema!$C$11,1,2)</definedName>
-    <definedName name="CompanyName">InfoSchema!$C$2</definedName>
-    <definedName name="IRDFileNumber">InfoSchema!$C$3</definedName>
-    <definedName name="IRDFileNumberRear">MID(InfoSchema!$C$3,4,20)</definedName>
-    <definedName name="YearOfAssessment">SUBSTITUTE(InfoSchema!$C$4,"/","")</definedName>
+    <definedName name="AccountingPeriodEndDate">MID(__InfoSchema!$C$12,7,4)&amp;"-"&amp;MID(__InfoSchema!$C$12,4,2)&amp;"-"&amp;MID(__InfoSchema!$C$12,1,2)</definedName>
+    <definedName name="AccountingPeriodStartDate">MID(__InfoSchema!$C$11,7,4)&amp;"-"&amp;MID(__InfoSchema!$C$11,4,2)&amp;"-"&amp;MID(__InfoSchema!$C$11,1,2)</definedName>
+    <definedName name="CompanyName">__InfoSchema!$C$2</definedName>
+    <definedName name="IRDFileNumber">__InfoSchema!$C$3</definedName>
+    <definedName name="IRDFileNumberRear">MID(__InfoSchema!$C$3,4,20)</definedName>
+    <definedName name="YearOfAssessment">SUBSTITUTE(__InfoSchema!$C$4,"/","")</definedName>
     <definedName name="Z_071C96B8_C2D1_4610_A039_A3901D0D3406_.wvu.FilterData" localSheetId="0" hidden="1">'__IRD_TC_Preliminary Edition'!$A$1:$B$605</definedName>
     <definedName name="Z_9507FAC8_399F_4BB6_8D3E_320C738EFC23_.wvu.FilterData" localSheetId="0" hidden="1">'__IRD_TC_Preliminary Edition'!$A$1:$B$605</definedName>
     <definedName name="Z_BEC5C3C0_B344_4460_B76A_3483AA93AD72_.wvu.FilterData" localSheetId="0" hidden="1">'__IRD_TC_Preliminary Edition'!$A$1:$B$605</definedName>
@@ -76,8 +76,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8995,12 +8993,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="63.59765625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="63.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="64.53125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="44.265625" style="64" customWidth="1"/>
-    <col min="3" max="3" width="15.06640625" customWidth="1"/>
-    <col min="26" max="16384" width="63.59765625" style="61"/>
+    <col min="1" max="1" width="64.5546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="44.21875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="26" max="16384" width="63.5546875" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -9410,7 +9408,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="17" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A17" s="76" t="s">
         <v>927</v>
       </c>
@@ -9490,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="27.6">
       <c r="A20" s="75" t="s">
         <v>930</v>
       </c>
@@ -9944,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" ht="27.6">
       <c r="A45" s="78" t="s">
         <v>955</v>
       </c>
@@ -10004,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="26.25">
+    <row r="50" spans="1:25" ht="27.6">
       <c r="A50" s="78" t="s">
         <v>960</v>
       </c>
@@ -10086,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" ht="27.6">
       <c r="A55" s="78" t="s">
         <v>965</v>
       </c>
@@ -10158,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" ht="27.6">
       <c r="A61" s="78" t="s">
         <v>971</v>
       </c>
@@ -10206,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="26.25">
+    <row r="65" spans="1:3" ht="27.6">
       <c r="A65" s="78" t="s">
         <v>975</v>
       </c>
@@ -10266,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="26.25">
+    <row r="70" spans="1:3" ht="27.6">
       <c r="A70" s="78" t="s">
         <v>980</v>
       </c>
@@ -10338,7 +10336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="27.6">
       <c r="A76" s="78" t="s">
         <v>986</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="27.6">
       <c r="A78" s="78" t="s">
         <v>988</v>
       </c>
@@ -10374,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="26.25">
+    <row r="79" spans="1:3" ht="27.6">
       <c r="A79" s="78" t="s">
         <v>989</v>
       </c>
@@ -10386,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="26.25">
+    <row r="80" spans="1:3" ht="27.6">
       <c r="A80" s="78" t="s">
         <v>990</v>
       </c>
@@ -10470,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="27.6">
       <c r="A87" s="78" t="s">
         <v>997</v>
       </c>
@@ -10482,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="26.25">
+    <row r="88" spans="1:3" ht="27.6">
       <c r="A88" s="78" t="s">
         <v>998</v>
       </c>
@@ -10554,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="27.6">
       <c r="A94" s="78" t="s">
         <v>1004</v>
       </c>
@@ -10650,7 +10648,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="26.25">
+    <row r="102" spans="1:3" ht="27.6">
       <c r="A102" s="78" t="s">
         <v>1012</v>
       </c>
@@ -10662,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="26.25">
+    <row r="103" spans="1:3" ht="27.6">
       <c r="A103" s="78" t="s">
         <v>1013</v>
       </c>
@@ -10674,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="26.25">
+    <row r="104" spans="1:3" ht="27.6">
       <c r="A104" s="78" t="s">
         <v>1014</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="26.25">
+    <row r="105" spans="1:3" ht="27.6">
       <c r="A105" s="78" t="s">
         <v>1015</v>
       </c>
@@ -10710,7 +10708,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="27.6">
       <c r="A107" s="78" t="s">
         <v>1017</v>
       </c>
@@ -10734,7 +10732,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="26.25">
+    <row r="109" spans="1:3" ht="27.6">
       <c r="A109" s="78" t="s">
         <v>1019</v>
       </c>
@@ -10746,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="26.25">
+    <row r="110" spans="1:3" ht="27.6">
       <c r="A110" s="78" t="s">
         <v>1020</v>
       </c>
@@ -10758,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="26.25">
+    <row r="111" spans="1:3" ht="27.6">
       <c r="A111" s="78" t="s">
         <v>1021</v>
       </c>
@@ -10770,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="26.25">
+    <row r="112" spans="1:3" ht="27.6">
       <c r="A112" s="78" t="s">
         <v>1022</v>
       </c>
@@ -10950,7 +10948,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="27.6">
       <c r="A127" s="73" t="s">
         <v>1037</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" ht="27.6">
       <c r="A129" s="73" t="s">
         <v>1039</v>
       </c>
@@ -10986,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="26.25">
+    <row r="130" spans="1:3" ht="27.6">
       <c r="A130" s="73" t="s">
         <v>1040</v>
       </c>
@@ -11250,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="26.25">
+    <row r="152" spans="1:3" ht="27.6">
       <c r="A152" s="73" t="s">
         <v>1062</v>
       </c>
@@ -11286,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" ht="27.6">
       <c r="A155" s="73" t="s">
         <v>1065</v>
       </c>
@@ -11310,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="26.25">
+    <row r="157" spans="1:3" ht="27.6">
       <c r="A157" s="73" t="s">
         <v>1067</v>
       </c>
@@ -11536,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" ht="27.6">
       <c r="A174" s="73" t="s">
         <v>1084</v>
       </c>
@@ -11548,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" ht="27.6">
       <c r="A175" s="73" t="s">
         <v>1085</v>
       </c>
@@ -11560,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="26.25">
+    <row r="176" spans="1:25" ht="27.6">
       <c r="A176" s="73" t="s">
         <v>1086</v>
       </c>
@@ -11880,7 +11878,7 @@
       <c r="X187"/>
       <c r="Y187"/>
     </row>
-    <row r="188" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="188" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A188" s="73" t="s">
         <v>1098</v>
       </c>
@@ -12152,7 +12150,7 @@
       <c r="X195"/>
       <c r="Y195"/>
     </row>
-    <row r="196" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="196" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A196" s="73" t="s">
         <v>1106</v>
       </c>
@@ -12288,7 +12286,7 @@
       <c r="X199"/>
       <c r="Y199"/>
     </row>
-    <row r="200" spans="1:25" s="63" customFormat="1">
+    <row r="200" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A200" s="73" t="s">
         <v>1110</v>
       </c>
@@ -12394,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" ht="27.6">
       <c r="A207" s="73" t="s">
         <v>1117</v>
       </c>
@@ -12466,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="26.25">
+    <row r="213" spans="1:3" ht="27.6">
       <c r="A213" s="73" t="s">
         <v>1123</v>
       </c>
@@ -12526,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="26.25">
+    <row r="218" spans="1:3" ht="27.6">
       <c r="A218" s="73" t="s">
         <v>1128</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="26.25">
+    <row r="219" spans="1:3" ht="27.6">
       <c r="A219" s="73" t="s">
         <v>1129</v>
       </c>
@@ -12550,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="27.6">
       <c r="A220" s="73" t="s">
         <v>1130</v>
       </c>
@@ -12622,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="27.6">
       <c r="A226" s="73" t="s">
         <v>1136</v>
       </c>
@@ -12646,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="26.25">
+    <row r="228" spans="1:3" ht="27.6">
       <c r="A228" s="73" t="s">
         <v>1138</v>
       </c>
@@ -12658,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="26.25">
+    <row r="229" spans="1:3" ht="27.6">
       <c r="A229" s="73" t="s">
         <v>1139</v>
       </c>
@@ -12670,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="26.25">
+    <row r="230" spans="1:3" ht="27.6">
       <c r="A230" s="73" t="s">
         <v>1140</v>
       </c>
@@ -12682,7 +12680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="26.25">
+    <row r="231" spans="1:3" ht="27.6">
       <c r="A231" s="73" t="s">
         <v>1141</v>
       </c>
@@ -12814,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="26.25">
+    <row r="242" spans="1:25" ht="27.6">
       <c r="A242" s="73" t="s">
         <v>1152</v>
       </c>
@@ -12884,7 +12882,7 @@
       <c r="X245"/>
       <c r="Y245"/>
     </row>
-    <row r="246" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="246" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A246" s="73" t="s">
         <v>1156</v>
       </c>
@@ -13258,7 +13256,7 @@
       <c r="X256"/>
       <c r="Y256"/>
     </row>
-    <row r="257" spans="1:25" s="63" customFormat="1">
+    <row r="257" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A257" s="73" t="s">
         <v>1167</v>
       </c>
@@ -13326,7 +13324,7 @@
       <c r="X258"/>
       <c r="Y258"/>
     </row>
-    <row r="259" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="259" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A259" s="73" t="s">
         <v>1169</v>
       </c>
@@ -13360,7 +13358,7 @@
       <c r="X259"/>
       <c r="Y259"/>
     </row>
-    <row r="260" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="260" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A260" s="73" t="s">
         <v>1170</v>
       </c>
@@ -13836,7 +13834,7 @@
       <c r="X273"/>
       <c r="Y273"/>
     </row>
-    <row r="274" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="274" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A274" s="72" t="s">
         <v>1184</v>
       </c>
@@ -14244,7 +14242,7 @@
       <c r="X285"/>
       <c r="Y285"/>
     </row>
-    <row r="286" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="286" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A286" s="73" t="s">
         <v>1196</v>
       </c>
@@ -14778,7 +14776,7 @@
       <c r="X302"/>
       <c r="Y302"/>
     </row>
-    <row r="303" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="303" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A303" s="73" t="s">
         <v>1213</v>
       </c>
@@ -14812,7 +14810,7 @@
       <c r="X303"/>
       <c r="Y303"/>
     </row>
-    <row r="304" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="304" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A304" s="73" t="s">
         <v>1214</v>
       </c>
@@ -14846,7 +14844,7 @@
       <c r="X304"/>
       <c r="Y304"/>
     </row>
-    <row r="305" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="305" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A305" s="73" t="s">
         <v>1215</v>
       </c>
@@ -14914,7 +14912,7 @@
       <c r="X306"/>
       <c r="Y306"/>
     </row>
-    <row r="307" spans="1:25" s="63" customFormat="1">
+    <row r="307" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A307" s="73" t="s">
         <v>1217</v>
       </c>
@@ -14948,7 +14946,7 @@
       <c r="X307"/>
       <c r="Y307"/>
     </row>
-    <row r="308" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="308" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A308" s="73" t="s">
         <v>1218</v>
       </c>
@@ -15050,7 +15048,7 @@
       <c r="X310"/>
       <c r="Y310"/>
     </row>
-    <row r="311" spans="1:25" ht="26.25">
+    <row r="311" spans="1:25" ht="27.6">
       <c r="A311" s="78" t="s">
         <v>1221</v>
       </c>
@@ -15062,7 +15060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="26.25">
+    <row r="312" spans="1:25" ht="27.6">
       <c r="A312" s="78" t="s">
         <v>1222</v>
       </c>
@@ -15074,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="26.25">
+    <row r="313" spans="1:25" ht="27.6">
       <c r="A313" s="78" t="s">
         <v>1223</v>
       </c>
@@ -15122,7 +15120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="26.25">
+    <row r="317" spans="1:25" ht="27.6">
       <c r="A317" s="73" t="s">
         <v>1227</v>
       </c>
@@ -15134,7 +15132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="26.25">
+    <row r="318" spans="1:25" ht="27.6">
       <c r="A318" s="73" t="s">
         <v>1228</v>
       </c>
@@ -15228,7 +15226,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="26.25">
+    <row r="324" spans="1:3" ht="27.6">
       <c r="A324" s="73" t="s">
         <v>1232</v>
       </c>
@@ -15240,7 +15238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="26.25">
+    <row r="325" spans="1:3" ht="27.6">
       <c r="A325" s="73" t="s">
         <v>1233</v>
       </c>
@@ -15252,7 +15250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="26.25">
+    <row r="326" spans="1:3" ht="27.6">
       <c r="A326" s="73" t="s">
         <v>1234</v>
       </c>
@@ -15264,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="26.25">
+    <row r="327" spans="1:3" ht="27.6">
       <c r="A327" s="73" t="s">
         <v>1235</v>
       </c>
@@ -15276,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="26.25">
+    <row r="328" spans="1:3" ht="27.6">
       <c r="A328" s="73" t="s">
         <v>1236</v>
       </c>
@@ -15288,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="26.25">
+    <row r="329" spans="1:3" ht="27.6">
       <c r="A329" s="73" t="s">
         <v>1237</v>
       </c>
@@ -15300,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="26.25">
+    <row r="330" spans="1:3" ht="27.6">
       <c r="A330" s="73" t="s">
         <v>1238</v>
       </c>
@@ -15324,7 +15322,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="26.25">
+    <row r="332" spans="1:3" ht="27.6">
       <c r="A332" s="73" t="s">
         <v>1239</v>
       </c>
@@ -15336,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="26.25">
+    <row r="333" spans="1:3" ht="27.6">
       <c r="A333" s="73" t="s">
         <v>1240</v>
       </c>
@@ -15348,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="26.25">
+    <row r="334" spans="1:3" ht="27.6">
       <c r="A334" s="73" t="s">
         <v>1241</v>
       </c>
@@ -15360,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="26.25">
+    <row r="335" spans="1:3" ht="27.6">
       <c r="A335" s="73" t="s">
         <v>1242</v>
       </c>
@@ -15372,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="26.25">
+    <row r="336" spans="1:3" ht="27.6">
       <c r="A336" s="73" t="s">
         <v>1243</v>
       </c>
@@ -15384,7 +15382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="26.25">
+    <row r="337" spans="1:3" ht="27.6">
       <c r="A337" s="73" t="s">
         <v>1235</v>
       </c>
@@ -15396,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="26.25">
+    <row r="338" spans="1:3" ht="27.6">
       <c r="A338" s="73" t="s">
         <v>1236</v>
       </c>
@@ -15408,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="26.25">
+    <row r="339" spans="1:3" ht="27.6">
       <c r="A339" s="73" t="s">
         <v>1237</v>
       </c>
@@ -15432,7 +15430,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="26.25">
+    <row r="341" spans="1:3" ht="27.6">
       <c r="A341" s="73" t="s">
         <v>1244</v>
       </c>
@@ -15444,7 +15442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="26.25">
+    <row r="342" spans="1:3" ht="27.6">
       <c r="A342" s="73" t="s">
         <v>1245</v>
       </c>
@@ -15456,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="26.25">
+    <row r="343" spans="1:3" ht="27.6">
       <c r="A343" s="73" t="s">
         <v>1246</v>
       </c>
@@ -15468,7 +15466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="26.25">
+    <row r="344" spans="1:3" ht="27.6">
       <c r="A344" s="73" t="s">
         <v>1235</v>
       </c>
@@ -15480,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="26.25">
+    <row r="345" spans="1:3" ht="27.6">
       <c r="A345" s="73" t="s">
         <v>1236</v>
       </c>
@@ -15492,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="26.25">
+    <row r="346" spans="1:3" ht="27.6">
       <c r="A346" s="73" t="s">
         <v>1237</v>
       </c>
@@ -15504,7 +15502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="26.25">
+    <row r="347" spans="1:3" ht="27.6">
       <c r="A347" s="73" t="s">
         <v>1238</v>
       </c>
@@ -15600,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:25" ht="27.6">
       <c r="A355" s="78" t="s">
         <v>1254</v>
       </c>
@@ -15612,7 +15610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="26.25">
+    <row r="356" spans="1:25" ht="27.6">
       <c r="A356" s="78" t="s">
         <v>1255</v>
       </c>
@@ -15624,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="357" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A357" s="76" t="s">
         <v>1256</v>
       </c>
@@ -15658,7 +15656,7 @@
       <c r="X357"/>
       <c r="Y357"/>
     </row>
-    <row r="358" spans="1:25" ht="39.4">
+    <row r="358" spans="1:25" ht="41.4">
       <c r="A358" s="78" t="s">
         <v>1257</v>
       </c>
@@ -15670,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="26.25">
+    <row r="359" spans="1:25" ht="27.6">
       <c r="A359" s="78" t="s">
         <v>1258</v>
       </c>
@@ -15682,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="39.4">
+    <row r="360" spans="1:25" ht="41.4">
       <c r="A360" s="78" t="s">
         <v>1259</v>
       </c>
@@ -15766,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="26.25">
+    <row r="367" spans="1:25" ht="27.6">
       <c r="A367" s="78" t="s">
         <v>1266</v>
       </c>
@@ -15778,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="39.4">
+    <row r="368" spans="1:25" ht="41.4">
       <c r="A368" s="78" t="s">
         <v>1267</v>
       </c>
@@ -15790,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="26.25">
+    <row r="369" spans="1:25" ht="27.6">
       <c r="A369" s="78" t="s">
         <v>1268</v>
       </c>
@@ -15802,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="26.25">
+    <row r="370" spans="1:25" ht="27.6">
       <c r="A370" s="78" t="s">
         <v>1269</v>
       </c>
@@ -15814,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="26.25">
+    <row r="371" spans="1:25" ht="27.6">
       <c r="A371" s="78" t="s">
         <v>1270</v>
       </c>
@@ -15862,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="26.25">
+    <row r="375" spans="1:25" ht="27.6">
       <c r="A375" s="78" t="s">
         <v>1274</v>
       </c>
@@ -15874,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="39.4">
+    <row r="376" spans="1:25" ht="41.4">
       <c r="A376" s="78" t="s">
         <v>1275</v>
       </c>
@@ -15980,7 +15978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="26.25">
+    <row r="383" spans="1:25" ht="27.6">
       <c r="A383" s="76" t="s">
         <v>1282</v>
       </c>
@@ -16124,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="26.25">
+    <row r="395" spans="1:3" ht="27.6">
       <c r="A395" s="76" t="s">
         <v>1293</v>
       </c>
@@ -16208,7 +16206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" ht="27.6">
       <c r="A402" s="76" t="s">
         <v>1300</v>
       </c>
@@ -16220,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" ht="27.6">
       <c r="A403" s="76" t="s">
         <v>1301</v>
       </c>
@@ -16244,7 +16242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" ht="27.6">
       <c r="A405" s="76" t="s">
         <v>1303</v>
       </c>
@@ -16400,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="418" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A418" s="76" t="s">
         <v>1316</v>
       </c>
@@ -16434,7 +16432,7 @@
       <c r="X418"/>
       <c r="Y418"/>
     </row>
-    <row r="419" spans="1:25" ht="26.25">
+    <row r="419" spans="1:25" ht="27.6">
       <c r="A419" s="76" t="s">
         <v>1317</v>
       </c>
@@ -16446,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25">
+    <row r="420" spans="1:25" ht="27.6">
       <c r="A420" s="76" t="s">
         <v>1318</v>
       </c>
@@ -16458,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:25">
+    <row r="421" spans="1:25" ht="27.6">
       <c r="A421" s="76" t="s">
         <v>1319</v>
       </c>
@@ -16470,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25">
+    <row r="422" spans="1:25" ht="27.6">
       <c r="A422" s="76" t="s">
         <v>1320</v>
       </c>
@@ -16482,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="26.25">
+    <row r="423" spans="1:25" ht="27.6">
       <c r="A423" s="76" t="s">
         <v>1321</v>
       </c>
@@ -16574,7 +16572,7 @@
       <c r="X426"/>
       <c r="Y426"/>
     </row>
-    <row r="427" spans="1:25" s="63" customFormat="1">
+    <row r="427" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A427" s="76" t="s">
         <v>1325</v>
       </c>
@@ -16608,7 +16606,7 @@
       <c r="X427"/>
       <c r="Y427"/>
     </row>
-    <row r="428" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="428" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A428" s="76" t="s">
         <v>1326</v>
       </c>
@@ -16676,7 +16674,7 @@
       <c r="X429"/>
       <c r="Y429"/>
     </row>
-    <row r="430" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="430" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A430" s="76" t="s">
         <v>1328</v>
       </c>
@@ -16710,7 +16708,7 @@
       <c r="X430"/>
       <c r="Y430"/>
     </row>
-    <row r="431" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="431" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A431" s="76" t="s">
         <v>1329</v>
       </c>
@@ -16744,7 +16742,7 @@
       <c r="X431"/>
       <c r="Y431"/>
     </row>
-    <row r="432" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="432" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A432" s="76" t="s">
         <v>1330</v>
       </c>
@@ -16778,7 +16776,7 @@
       <c r="X432"/>
       <c r="Y432"/>
     </row>
-    <row r="433" spans="1:25" s="63" customFormat="1">
+    <row r="433" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A433" s="76" t="s">
         <v>1331</v>
       </c>
@@ -16846,7 +16844,7 @@
       <c r="X434"/>
       <c r="Y434"/>
     </row>
-    <row r="435" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="435" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A435" s="76" t="s">
         <v>1333</v>
       </c>
@@ -17272,7 +17270,7 @@
       <c r="X464"/>
       <c r="Y464"/>
     </row>
-    <row r="465" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="465" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A465" s="73" t="s">
         <v>1360</v>
       </c>
@@ -17340,7 +17338,7 @@
       <c r="X466"/>
       <c r="Y466"/>
     </row>
-    <row r="467" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="467" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A467" s="73" t="s">
         <v>1362</v>
       </c>
@@ -17408,7 +17406,7 @@
       <c r="X468"/>
       <c r="Y468"/>
     </row>
-    <row r="469" spans="1:25" s="63" customFormat="1" ht="39.4">
+    <row r="469" spans="1:25" s="63" customFormat="1" ht="55.2">
       <c r="A469" s="73" t="s">
         <v>1364</v>
       </c>
@@ -17612,7 +17610,7 @@
       <c r="X474"/>
       <c r="Y474"/>
     </row>
-    <row r="475" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="475" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A475" s="73" t="s">
         <v>1370</v>
       </c>
@@ -17658,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="477" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A477" s="73" t="s">
         <v>1372</v>
       </c>
@@ -17692,7 +17690,7 @@
       <c r="X477"/>
       <c r="Y477"/>
     </row>
-    <row r="478" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="478" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A478" s="73" t="s">
         <v>1373</v>
       </c>
@@ -17726,7 +17724,7 @@
       <c r="X478"/>
       <c r="Y478"/>
     </row>
-    <row r="479" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="479" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A479" s="73" t="s">
         <v>1374</v>
       </c>
@@ -17948,7 +17946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:25" s="63" customFormat="1" ht="39.4">
+    <row r="492" spans="1:25" s="63" customFormat="1" ht="41.4">
       <c r="A492" s="73" t="s">
         <v>1387</v>
       </c>
@@ -18054,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="499" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A499" s="73" t="s">
         <v>1394</v>
       </c>
@@ -18100,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25">
+    <row r="501" spans="1:25" ht="27.6">
       <c r="A501" s="73" t="s">
         <v>1396</v>
       </c>
@@ -18136,7 +18134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:25" s="63" customFormat="1" ht="39.4">
+    <row r="504" spans="1:25" s="63" customFormat="1" ht="41.4">
       <c r="A504" s="73" t="s">
         <v>1399</v>
       </c>
@@ -18170,7 +18168,7 @@
       <c r="X504"/>
       <c r="Y504"/>
     </row>
-    <row r="505" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="505" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A505" s="73" t="s">
         <v>1400</v>
       </c>
@@ -18204,7 +18202,7 @@
       <c r="X505"/>
       <c r="Y505"/>
     </row>
-    <row r="506" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="506" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A506" s="73" t="s">
         <v>1401</v>
       </c>
@@ -18238,7 +18236,7 @@
       <c r="X506"/>
       <c r="Y506"/>
     </row>
-    <row r="507" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="507" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A507" s="73" t="s">
         <v>1402</v>
       </c>
@@ -18272,7 +18270,7 @@
       <c r="X507"/>
       <c r="Y507"/>
     </row>
-    <row r="508" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="508" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A508" s="73" t="s">
         <v>1403</v>
       </c>
@@ -18340,7 +18338,7 @@
       <c r="X509"/>
       <c r="Y509"/>
     </row>
-    <row r="510" spans="1:25" ht="26.25">
+    <row r="510" spans="1:25" ht="27.6">
       <c r="A510" s="73" t="s">
         <v>1405</v>
       </c>
@@ -18412,7 +18410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="26.25">
+    <row r="516" spans="1:3" ht="27.6">
       <c r="A516" s="82" t="s">
         <v>1411</v>
       </c>
@@ -18424,7 +18422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" ht="27.6">
       <c r="A517" s="82" t="s">
         <v>1412</v>
       </c>
@@ -18436,7 +18434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" ht="27.6">
       <c r="A518" s="82" t="s">
         <v>1413</v>
       </c>
@@ -18448,7 +18446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="26.25">
+    <row r="519" spans="1:3" ht="27.6">
       <c r="A519" s="82" t="s">
         <v>1414</v>
       </c>
@@ -18460,7 +18458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="26.25">
+    <row r="520" spans="1:3" ht="41.4">
       <c r="A520" s="82" t="s">
         <v>1415</v>
       </c>
@@ -18734,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:25">
+    <row r="541" spans="1:25" ht="27.6">
       <c r="A541" s="72" t="s">
         <v>1434</v>
       </c>
@@ -18746,7 +18744,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:25" ht="26.25">
+    <row r="542" spans="1:25" ht="27.6">
       <c r="A542" s="73" t="s">
         <v>1798</v>
       </c>
@@ -18782,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:25" ht="26.25">
+    <row r="545" spans="1:25" ht="27.6">
       <c r="A545" s="73" t="s">
         <v>1084</v>
       </c>
@@ -18794,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:25" ht="26.25">
+    <row r="546" spans="1:25" ht="27.6">
       <c r="A546" s="73" t="s">
         <v>1085</v>
       </c>
@@ -18806,7 +18804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:25" ht="26.25">
+    <row r="547" spans="1:25" ht="27.6">
       <c r="A547" s="73" t="s">
         <v>1086</v>
       </c>
@@ -18818,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:25">
+    <row r="548" spans="1:25" ht="27.6">
       <c r="A548" s="73" t="s">
         <v>1087</v>
       </c>
@@ -18922,7 +18920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:25" ht="26.25">
+    <row r="553" spans="1:25" ht="27.6">
       <c r="A553" s="73" t="s">
         <v>1227</v>
       </c>
@@ -18934,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="554" spans="1:25" s="63" customFormat="1" ht="41.4">
       <c r="A554" s="73" t="s">
         <v>1436</v>
       </c>
@@ -18968,7 +18966,7 @@
       <c r="X554"/>
       <c r="Y554"/>
     </row>
-    <row r="555" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="555" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A555" s="73" t="s">
         <v>1437</v>
       </c>
@@ -19218,7 +19216,7 @@
       <c r="X562"/>
       <c r="Y562"/>
     </row>
-    <row r="563" spans="1:25" s="63" customFormat="1">
+    <row r="563" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A563" s="76" t="s">
         <v>1444</v>
       </c>
@@ -19424,7 +19422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:25" ht="26.25">
+    <row r="571" spans="1:25" ht="27.6">
       <c r="A571" s="73" t="s">
         <v>1227</v>
       </c>
@@ -19436,7 +19434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:25">
+    <row r="572" spans="1:25" ht="27.6">
       <c r="A572" s="72" t="s">
         <v>1450</v>
       </c>
@@ -19700,7 +19698,7 @@
       <c r="X582"/>
       <c r="Y582"/>
     </row>
-    <row r="583" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="583" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A583" s="76" t="s">
         <v>1455</v>
       </c>
@@ -19836,7 +19834,7 @@
       <c r="X586"/>
       <c r="Y586"/>
     </row>
-    <row r="587" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="587" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A587" s="73" t="s">
         <v>1459</v>
       </c>
@@ -19870,7 +19868,7 @@
       <c r="X587"/>
       <c r="Y587"/>
     </row>
-    <row r="588" spans="1:25" s="63" customFormat="1" ht="26.25">
+    <row r="588" spans="1:25" s="63" customFormat="1" ht="27.6">
       <c r="A588" s="76" t="s">
         <v>1460</v>
       </c>
@@ -20124,17 +20122,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="37.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="4" width="29.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="7.1328125" style="1"/>
-    <col min="11" max="16384" width="7.1328125" style="4"/>
+    <col min="3" max="4" width="29.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="7.109375" style="1"/>
+    <col min="11" max="16384" width="7.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="40.950000000000003" customHeight="1">
       <c r="B1" s="15" t="s">
         <v>45</v>
       </c>
@@ -20696,41 +20694,41 @@
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="25.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.3984375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="24.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="12.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="7.1328125" style="4"/>
-    <col min="31" max="31" width="13.73046875" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="7.1328125" style="4"/>
+    <col min="16" max="16" width="27.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="7.109375" style="4"/>
+    <col min="31" max="31" width="13.77734375" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="7.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="22" customFormat="1" ht="52.7" customHeight="1">
+    <row r="1" spans="1:33" s="22" customFormat="1" ht="52.65" customHeight="1">
       <c r="A1" s="22" t="str">
         <f>"Year of "&amp;CHAR(10)&amp;"addition /"&amp;CHAR(10)&amp;"brought"&amp;CHAR(10)&amp;"forward"</f>
         <v>Year of 
@@ -20864,7 +20862,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="20.45" customHeight="1">
+    <row r="2" spans="1:33" ht="20.399999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -22108,7 +22106,7 @@
     </row>
     <row r="18" spans="2:28" ht="14.1" customHeight="1"/>
     <row r="19" spans="2:28" ht="15" customHeight="1"/>
-    <row r="20" spans="2:28" ht="31.7" hidden="1" customHeight="1">
+    <row r="20" spans="2:28" ht="31.65" hidden="1" customHeight="1">
       <c r="C20" s="1" t="s">
         <v>273</v>
       </c>
@@ -22116,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="21.95" hidden="1" customHeight="1">
+    <row r="21" spans="2:28" ht="21.9" hidden="1" customHeight="1">
       <c r="C21" s="23" t="s">
         <v>60</v>
       </c>
@@ -22164,7 +22162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="19.25" hidden="1" customHeight="1">
+    <row r="27" spans="2:28" ht="19.2" hidden="1" customHeight="1">
       <c r="C27" s="23" t="s">
         <v>63</v>
       </c>
@@ -22204,21 +22202,21 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.86328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
     <col min="9" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6.86328125" style="4"/>
+    <col min="14" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75">
+    <row r="1" spans="1:8" ht="27.6">
       <c r="A1" s="22" t="s">
         <v>90</v>
       </c>
@@ -22356,7 +22354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.25" customHeight="1">
+    <row r="6" spans="1:8" ht="19.2" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <f>SUM(B2:B5)</f>
@@ -22384,7 +22382,7 @@
         <v>899778</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23" customHeight="1">
+    <row r="7" spans="1:8" ht="22.95" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -22405,10 +22403,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" ht="25.95" hidden="1" customHeight="1">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="41.65" hidden="1">
+    <row r="9" spans="1:8" ht="41.4" hidden="1">
       <c r="A9" s="1" t="s">
         <v>273</v>
       </c>
@@ -22416,13 +22414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.75" hidden="1">
+    <row r="10" spans="1:8" ht="27.6" hidden="1">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="26" hidden="1" customHeight="1">
+    <row r="11" spans="1:8" ht="25.95" hidden="1" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -22437,13 +22435,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26" hidden="1" customHeight="1">
+    <row r="13" spans="1:8" ht="25.95" hidden="1" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27.75" hidden="1">
+    <row r="14" spans="1:8" ht="27.6" hidden="1">
       <c r="A14" s="1" t="str">
         <f>"Allowances apportioned"&amp;CHAR(10)&amp;"to onshore income"</f>
         <v>Allowances apportioned
@@ -22455,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" ht="25.95" hidden="1" customHeight="1">
       <c r="A15" s="1"/>
       <c r="F15" s="23" t="s">
         <v>25</v>
@@ -22469,7 +22467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="26" hidden="1" customHeight="1">
+    <row r="17" spans="1:1" ht="25.95" hidden="1" customHeight="1">
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1"/>
@@ -22500,23 +22498,23 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" customWidth="1"/>
     <col min="8" max="10" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" style="1" customWidth="1"/>
     <col min="12" max="21" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="26" width="6.265625" style="1"/>
-    <col min="27" max="16384" width="6.265625" style="4"/>
+    <col min="22" max="26" width="6.21875" style="1"/>
+    <col min="27" max="16384" width="6.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="22" customFormat="1" ht="55.5">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="69">
       <c r="A1" s="22" t="s">
         <v>94</v>
       </c>
@@ -22656,7 +22654,7 @@
       <c r="Y2" s="23"/>
       <c r="Z2" s="23"/>
     </row>
-    <row r="3" spans="1:26" ht="27.75">
+    <row r="3" spans="1:26" ht="27.6">
       <c r="A3" s="4" t="s">
         <v>110</v>
       </c>
@@ -22693,7 +22691,7 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="27.6">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -22818,7 +22816,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="27.6">
       <c r="A7" s="27"/>
       <c r="B7" s="23" t="s">
         <v>115</v>
@@ -22968,32 +22966,32 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="12" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="14.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.59765625" style="12" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="12" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="12" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.86328125" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.265625" style="31" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="18.59765625" style="32" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.73046875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" style="12" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" style="31" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.77734375" style="1" customWidth="1"/>
     <col min="25" max="30" width="7" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="6.265625" style="4"/>
+    <col min="31" max="16384" width="6.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="26" customFormat="1" ht="13.5" customHeight="1">
@@ -24107,16 +24105,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" style="4"/>
+    <col min="1" max="1" width="21.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="4"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
     <col min="4" max="4" width="7" style="4" customWidth="1"/>
     <col min="5" max="5" width="23" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="6.86328125" style="4"/>
+    <col min="7" max="7" width="15.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -24882,17 +24880,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="37.73046875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" style="23" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="23" customWidth="1"/>
     <col min="6" max="10" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16" width="7" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6.265625" style="4"/>
+    <col min="17" max="16384" width="6.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1">
@@ -25546,18 +25544,18 @@
         <v>-0.53888637621142821</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.5" hidden="1" customHeight="1">
+    <row r="79" spans="1:4" ht="18.45" hidden="1" customHeight="1">
       <c r="D79" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20.75" customHeight="1">
+    <row r="80" spans="1:4" ht="20.7" customHeight="1">
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="4:4" ht="20.75" customHeight="1">
+    <row r="81" spans="4:4" ht="20.7" customHeight="1">
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="4:4" ht="20.75" customHeight="1">
+    <row r="82" spans="4:4" ht="20.7" customHeight="1">
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="4:4" ht="15" customHeight="1">
@@ -25596,24 +25594,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="58.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.86328125" style="4"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="4"/>
     <col min="15" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="6.86328125" style="4"/>
+    <col min="19" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.2" hidden="1" customHeight="1">
+    <row r="1" spans="1:15" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A1" s="39"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -25628,7 +25626,7 @@
       <c r="E2" s="18"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:15" ht="27.75">
+    <row r="3" spans="1:15" ht="27.6">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
@@ -26012,7 +26010,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="11.75" customHeight="1">
+    <row r="18" spans="1:14" ht="11.7" customHeight="1">
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
@@ -26059,24 +26057,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="67.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="67.44140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="6.86328125" style="4"/>
+    <col min="19" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.2" hidden="1" customHeight="1">
+    <row r="1" spans="1:15" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A1" s="39"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -26091,7 +26089,7 @@
       <c r="E2" s="18"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:15" ht="27.5" customHeight="1">
+    <row r="3" spans="1:15" ht="27.45" customHeight="1">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
@@ -27397,7 +27395,7 @@
       </c>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:15" ht="12.5" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" ht="12.45" hidden="1" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -27408,7 +27406,7 @@
       </c>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="14:14" ht="11.75" customHeight="1">
+    <row r="49" spans="14:14" ht="11.7" customHeight="1">
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="14:14" ht="15" customHeight="1">
@@ -27455,24 +27453,24 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.86328125" style="4"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="4"/>
     <col min="15" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="6.86328125" style="4"/>
+    <col min="19" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.2" hidden="1" customHeight="1">
+    <row r="1" spans="1:14" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A1" s="39"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -27487,7 +27485,7 @@
       <c r="E2" s="18"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:14" ht="27.75">
+    <row r="3" spans="1:14" ht="27.6">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
@@ -27834,7 +27832,7 @@
       </c>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="14:14" ht="11.75" customHeight="1">
+    <row r="17" spans="14:14" ht="11.7" customHeight="1">
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="14:14" ht="15" customHeight="1">
@@ -27884,13 +27882,13 @@
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.46484375" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="41.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -30826,24 +30824,24 @@
       <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="51.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" style="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.86328125" style="4"/>
+    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="4"/>
     <col min="15" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="6.86328125" style="4"/>
+    <col min="19" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.2" hidden="1" customHeight="1">
+    <row r="1" spans="1:15" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A1" s="39"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -30858,7 +30856,7 @@
       <c r="E2" s="18"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:15" ht="27.5" customHeight="1">
+    <row r="3" spans="1:15" ht="27.45" customHeight="1">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="22" t="s">
@@ -31393,7 +31391,7 @@
       </c>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="12.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:14" ht="12.45" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -31404,7 +31402,7 @@
       </c>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="11.75" customHeight="1">
+    <row r="24" spans="1:14" ht="11.7" customHeight="1">
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
@@ -31451,16 +31449,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="60.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="6.86328125" style="4"/>
+    <col min="13" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
@@ -31741,7 +31739,7 @@
  error 108000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" hidden="1" customHeight="1">
+    <row r="21" spans="1:2" ht="16.95" hidden="1" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -31927,18 +31925,18 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.86328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="6.86328125" style="4"/>
+    <col min="1" max="1" width="16.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="6.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -32696,15 +32694,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="43.46484375" style="55" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="55" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="55" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="18.9296875" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="55"/>
+    <col min="6" max="6" width="18.88671875" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -32787,22 +32785,22 @@
       <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="64.9296875" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" customWidth="1"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.06640625" customWidth="1"/>
-    <col min="6" max="6" width="16.53125" customWidth="1"/>
-    <col min="7" max="7" width="24.9296875" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="36.3984375" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" customWidth="1"/>
+    <col min="11" max="11" width="36.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
+    <row r="1" spans="1:13" ht="18.45" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>348</v>
       </c>
@@ -53348,20 +53346,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="55.9296875" style="68" customWidth="1"/>
-    <col min="2" max="2" width="44.3984375" style="67" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="55.88671875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="67" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="72.73046875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="15.9296875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="12.06640625" style="67" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="67"/>
+    <col min="5" max="5" width="72.77734375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="65" customFormat="1" ht="18.399999999999999" customHeight="1">
+    <row r="1" spans="1:8" s="65" customFormat="1" ht="18.45" customHeight="1">
       <c r="A1" s="86" t="s">
         <v>405</v>
       </c>
@@ -53387,7 +53385,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="2" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A2" s="89" t="s">
         <v>1483</v>
       </c>
@@ -53412,7 +53410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="3" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A3" s="89" t="s">
         <v>319</v>
       </c>
@@ -53437,7 +53435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="4" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>325</v>
       </c>
@@ -53462,7 +53460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="5" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A5" s="89" t="s">
         <v>323</v>
       </c>
@@ -53487,7 +53485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="6" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>324</v>
       </c>
@@ -53512,7 +53510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="7" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A7" s="89" t="s">
         <v>1495</v>
       </c>
@@ -53539,7 +53537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="8" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A8" s="89" t="s">
         <v>1499</v>
       </c>
@@ -53564,7 +53562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="9" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A9" s="89" t="s">
         <v>1502</v>
       </c>
@@ -53589,7 +53587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="10" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A10" s="89" t="s">
         <v>1505</v>
       </c>
@@ -53614,7 +53612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="11" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A11" s="89" t="s">
         <v>1508</v>
       </c>
@@ -53639,7 +53637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="12" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>1511</v>
       </c>
@@ -53664,7 +53662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="13" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>1514</v>
       </c>
@@ -53689,7 +53687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="14" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A14" s="89" t="s">
         <v>1517</v>
       </c>
@@ -53714,7 +53712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="15" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>1520</v>
       </c>
@@ -53739,7 +53737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="16" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A16" s="89" t="s">
         <v>1523</v>
       </c>
@@ -53764,7 +53762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="17" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A17" s="89" t="s">
         <v>1526</v>
       </c>
@@ -53789,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="18" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A18" s="89" t="s">
         <v>1529</v>
       </c>
@@ -53814,7 +53812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="19" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A19" s="89" t="s">
         <v>1532</v>
       </c>
@@ -53839,7 +53837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="20" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A20" s="89" t="s">
         <v>326</v>
       </c>
@@ -53864,7 +53862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="21" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A21" s="89" t="s">
         <v>327</v>
       </c>
@@ -53889,7 +53887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="22" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A22" s="89" t="s">
         <v>1539</v>
       </c>
@@ -53914,7 +53912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="23" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A23" s="89" t="s">
         <v>320</v>
       </c>
@@ -53939,7 +53937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="24" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A24" s="89" t="s">
         <v>321</v>
       </c>
@@ -53964,7 +53962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="25" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A25" s="89" t="s">
         <v>322</v>
       </c>
@@ -53989,7 +53987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="26" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A26" s="89" t="s">
         <v>1549</v>
       </c>
@@ -54014,7 +54012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="27" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A27" s="89" t="s">
         <v>1552</v>
       </c>
@@ -54039,7 +54037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="28" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A28" s="89" t="s">
         <v>1555</v>
       </c>
@@ -54064,7 +54062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="29" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A29" s="89" t="s">
         <v>333</v>
       </c>
@@ -54089,7 +54087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="30" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A30" s="89" t="s">
         <v>334</v>
       </c>
@@ -54114,7 +54112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="31" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A31" s="89" t="s">
         <v>332</v>
       </c>
@@ -54139,7 +54137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="32" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A32" s="89" t="s">
         <v>1564</v>
       </c>
@@ -54164,7 +54162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="33" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A33" s="89" t="s">
         <v>1566</v>
       </c>
@@ -54189,7 +54187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="34" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A34" s="89" t="s">
         <v>1569</v>
       </c>
@@ -54214,7 +54212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="35" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A35" s="89" t="s">
         <v>1572</v>
       </c>
@@ -54239,7 +54237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="36" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A36" s="89" t="s">
         <v>1575</v>
       </c>
@@ -54264,7 +54262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="37" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A37" s="89" t="s">
         <v>1578</v>
       </c>
@@ -54289,7 +54287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="38" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A38" s="89" t="s">
         <v>1581</v>
       </c>
@@ -54314,7 +54312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="39" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A39" s="89" t="s">
         <v>1584</v>
       </c>
@@ -54341,7 +54339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="40" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A40" s="89" t="s">
         <v>1587</v>
       </c>
@@ -54368,7 +54366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="41" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A41" s="89" t="s">
         <v>1590</v>
       </c>
@@ -54395,7 +54393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="42" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A42" s="89" t="s">
         <v>1593</v>
       </c>
@@ -54422,7 +54420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="43" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A43" s="89" t="s">
         <v>1596</v>
       </c>
@@ -54449,7 +54447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="44" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A44" s="89" t="s">
         <v>1599</v>
       </c>
@@ -54476,7 +54474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="45" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A45" s="89" t="s">
         <v>1602</v>
       </c>
@@ -54503,7 +54501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="46" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A46" s="89" t="s">
         <v>1605</v>
       </c>
@@ -54530,7 +54528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="47" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A47" s="89" t="s">
         <v>1608</v>
       </c>
@@ -54557,7 +54555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="48" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A48" s="89" t="s">
         <v>21</v>
       </c>
@@ -54584,7 +54582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="49" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A49" s="89" t="s">
         <v>1613</v>
       </c>
@@ -54611,7 +54609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="50" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A50" s="89" t="s">
         <v>1616</v>
       </c>
@@ -54638,7 +54636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="51" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A51" s="89" t="s">
         <v>1619</v>
       </c>
@@ -54665,7 +54663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="52" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A52" s="89" t="s">
         <v>1622</v>
       </c>
@@ -54692,7 +54690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="53" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A53" s="89" t="s">
         <v>1625</v>
       </c>
@@ -54719,7 +54717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="54" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A54" s="89" t="s">
         <v>1628</v>
       </c>
@@ -54746,7 +54744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="55" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A55" s="89" t="s">
         <v>1631</v>
       </c>
@@ -54773,7 +54771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="56" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A56" s="89" t="s">
         <v>1634</v>
       </c>
@@ -54800,7 +54798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="57" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A57" s="89" t="s">
         <v>1637</v>
       </c>
@@ -54827,7 +54825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="58" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A58" s="89" t="s">
         <v>1640</v>
       </c>
@@ -54854,7 +54852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="59" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A59" s="89" t="s">
         <v>1643</v>
       </c>
@@ -54881,7 +54879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="60" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A60" s="89" t="s">
         <v>1646</v>
       </c>
@@ -54908,7 +54906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="61" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A61" s="89" t="s">
         <v>1649</v>
       </c>
@@ -54935,7 +54933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="62" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A62" s="89" t="s">
         <v>1652</v>
       </c>
@@ -54962,7 +54960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="63" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A63" s="89" t="s">
         <v>1655</v>
       </c>
@@ -54987,7 +54985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="64" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A64" s="89" t="s">
         <v>1658</v>
       </c>
@@ -55014,7 +55012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="65" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A65" s="89" t="s">
         <v>1661</v>
       </c>
@@ -55041,7 +55039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="66" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A66" s="89" t="s">
         <v>1664</v>
       </c>
@@ -55068,7 +55066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="67" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A67" s="89" t="s">
         <v>28</v>
       </c>
@@ -55095,7 +55093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="68" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A68" s="89" t="s">
         <v>1669</v>
       </c>
@@ -55122,7 +55120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="69" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A69" s="89" t="s">
         <v>1672</v>
       </c>
@@ -55149,7 +55147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="70" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A70" s="89" t="s">
         <v>1675</v>
       </c>
@@ -55176,7 +55174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="71" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A71" s="89" t="s">
         <v>1678</v>
       </c>
@@ -55203,7 +55201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="72" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A72" s="89" t="s">
         <v>1681</v>
       </c>
@@ -55230,7 +55228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="73" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A73" s="89" t="s">
         <v>1683</v>
       </c>
@@ -55257,7 +55255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="74" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A74" s="89" t="s">
         <v>1686</v>
       </c>
@@ -55284,7 +55282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="75" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A75" s="89" t="s">
         <v>1688</v>
       </c>
@@ -55311,7 +55309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="76" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A76" s="89" t="s">
         <v>1691</v>
       </c>
@@ -55338,7 +55336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="77" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A77" s="89" t="s">
         <v>1694</v>
       </c>
@@ -55365,7 +55363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="78" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A78" s="89" t="s">
         <v>1697</v>
       </c>
@@ -55392,7 +55390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="79" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A79" s="89" t="s">
         <v>1700</v>
       </c>
@@ -55419,7 +55417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="80" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A80" s="89" t="s">
         <v>1703</v>
       </c>
@@ -55446,7 +55444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="81" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A81" s="89" t="s">
         <v>1706</v>
       </c>
@@ -55473,7 +55471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="82" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A82" s="89" t="s">
         <v>1709</v>
       </c>
@@ -55500,7 +55498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="83" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A83" s="89" t="s">
         <v>1712</v>
       </c>
@@ -55525,7 +55523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="84" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A84" s="89" t="s">
         <v>1715</v>
       </c>
@@ -55552,7 +55550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="85" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A85" s="89" t="s">
         <v>0</v>
       </c>
@@ -55579,7 +55577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="86" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A86" s="89" t="s">
         <v>1720</v>
       </c>
@@ -55604,7 +55602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="87" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A87" s="89" t="s">
         <v>1723</v>
       </c>
@@ -55629,7 +55627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="88" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A88" s="89" t="s">
         <v>1726</v>
       </c>
@@ -55656,7 +55654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="89" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A89" s="89" t="s">
         <v>1807</v>
       </c>
@@ -55683,7 +55681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="90" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A90" s="89" t="s">
         <v>1731</v>
       </c>
@@ -55710,7 +55708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="91" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A91" s="89" t="s">
         <v>1734</v>
       </c>
@@ -55737,7 +55735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="92" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A92" s="89" t="s">
         <v>1737</v>
       </c>
@@ -55764,7 +55762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="93" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A93" s="89" t="s">
         <v>1740</v>
       </c>
@@ -55791,7 +55789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="94" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A94" s="89" t="s">
         <v>1743</v>
       </c>
@@ -55818,7 +55816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="95" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A95" s="89" t="s">
         <v>1746</v>
       </c>
@@ -55845,7 +55843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="66" customFormat="1" ht="35.75" customHeight="1">
+    <row r="96" spans="1:8" s="66" customFormat="1" ht="35.700000000000003" customHeight="1">
       <c r="A96" s="89" t="s">
         <v>1749</v>
       </c>
@@ -55883,22 +55881,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91AAFD8-6C58-4EAC-B126-4ABCB0DB5972}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="65.06640625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="55.46484375" style="67" customWidth="1"/>
-    <col min="3" max="3" width="29.06640625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="67" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="67.06640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" style="67" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="67"/>
+    <col min="5" max="5" width="67.109375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="67" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.9" customHeight="1">
+    <row r="1" spans="1:6" ht="22.95" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>1816</v>
       </c>
@@ -56201,7 +56199,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.75">
+    <row r="18" spans="1:5" ht="27.6">
       <c r="A18" s="85" t="s">
         <v>1505</v>
       </c>
@@ -56235,7 +56233,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.75">
+    <row r="20" spans="1:5" ht="27.6">
       <c r="A20" s="85" t="s">
         <v>1511</v>
       </c>
@@ -56252,7 +56250,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="55.5">
+    <row r="21" spans="1:5" ht="55.2">
       <c r="A21" s="85" t="s">
         <v>1514</v>
       </c>
@@ -56337,7 +56335,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.75">
+    <row r="26" spans="1:5" ht="27.6">
       <c r="A26" s="85" t="s">
         <v>1523</v>
       </c>
@@ -56371,7 +56369,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.75">
+    <row r="28" spans="1:5" ht="27.6">
       <c r="A28" s="85" t="s">
         <v>1529</v>
       </c>
@@ -56388,7 +56386,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.75">
+    <row r="29" spans="1:5" ht="27.6">
       <c r="A29" s="85" t="s">
         <v>1532</v>
       </c>
@@ -56565,7 +56563,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="41.65">
+    <row r="40" spans="1:5" ht="41.4">
       <c r="A40" s="85" t="s">
         <v>1555</v>
       </c>
@@ -56633,7 +56631,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27.75">
+    <row r="44" spans="1:5" ht="27.6">
       <c r="A44" s="85" t="s">
         <v>1575</v>
       </c>
@@ -56684,7 +56682,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27.75">
+    <row r="47" spans="1:5" ht="27.6">
       <c r="A47" s="85" t="s">
         <v>1655</v>
       </c>
@@ -56711,16 +56709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB4D043-7B34-46AB-B1C3-F7C09FE68602}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="48.3984375" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -56769,7 +56767,7 @@
         <v>=A!B15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.75">
+    <row r="4" spans="1:4" ht="27.6">
       <c r="A4" s="51" t="s">
         <v>28</v>
       </c>
@@ -56785,7 +56783,7 @@
         <v>=A!B44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.65">
+    <row r="5" spans="1:4" ht="55.2">
       <c r="A5" s="51" t="str">
         <f>"Commercial building allowance"&amp;CHAR(10)&amp;" - Balancing (allowance) / charge"</f>
         <v>Commercial building allowance
@@ -56803,7 +56801,7 @@
         <v>=A!B45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.75">
+    <row r="6" spans="1:4" ht="27.6">
       <c r="A6" s="52" t="s">
         <v>277</v>
       </c>
@@ -56883,7 +56881,7 @@
         <v>='A2'!B8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.75">
+    <row r="11" spans="1:4" ht="27.6">
       <c r="A11" s="52" t="s">
         <v>285</v>
       </c>
@@ -56899,7 +56897,7 @@
         <v>='B1'!B3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.75">
+    <row r="12" spans="1:4" ht="27.6">
       <c r="A12" s="52" t="s">
         <v>286</v>
       </c>
@@ -56915,7 +56913,7 @@
         <v>='B1'!C3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.75">
+    <row r="13" spans="1:4" ht="27.6">
       <c r="A13" s="52" t="s">
         <v>287</v>
       </c>
@@ -57027,7 +57025,7 @@
         <v>='B1'!D13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.75">
+    <row r="20" spans="1:4" ht="27.6">
       <c r="A20" s="53" t="s">
         <v>294</v>
       </c>
@@ -57043,7 +57041,7 @@
         <v>='B1'!E13</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="27.6">
       <c r="A21" s="53" t="s">
         <v>295</v>
       </c>
@@ -57059,7 +57057,7 @@
         <v>='B1'!B34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="27.6">
       <c r="A22" s="53" t="s">
         <v>296</v>
       </c>
@@ -57075,7 +57073,7 @@
         <v>='B1'!C34</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="27.6">
       <c r="A23" s="53" t="s">
         <v>297</v>
       </c>
@@ -57091,7 +57089,7 @@
         <v>='B1'!D34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.75">
+    <row r="24" spans="1:4" ht="27.6">
       <c r="A24" s="53" t="s">
         <v>298</v>
       </c>
@@ -57107,7 +57105,7 @@
         <v>='B1'!E34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27.75">
+    <row r="25" spans="1:4" ht="27.6">
       <c r="A25" s="52" t="s">
         <v>299</v>
       </c>
@@ -57123,7 +57121,7 @@
         <v>='B1'!B36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27.75">
+    <row r="26" spans="1:4" ht="27.6">
       <c r="A26" s="52" t="s">
         <v>300</v>
       </c>
@@ -57139,7 +57137,7 @@
         <v>='B1'!C36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27.75">
+    <row r="27" spans="1:4" ht="27.6">
       <c r="A27" s="52" t="s">
         <v>301</v>
       </c>
@@ -57155,7 +57153,7 @@
         <v>='B1'!D36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27.75">
+    <row r="28" spans="1:4" ht="27.6">
       <c r="A28" s="53" t="s">
         <v>302</v>
       </c>
@@ -57171,7 +57169,7 @@
         <v>='C'!D7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27.75">
+    <row r="29" spans="1:4" ht="27.6">
       <c r="A29" s="53" t="s">
         <v>303</v>
       </c>
@@ -57187,7 +57185,7 @@
         <v>='C'!K7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="27.6">
       <c r="A30" s="53" t="s">
         <v>304</v>
       </c>
@@ -57283,7 +57281,7 @@
         <v>='D1'!D27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="41.65">
+    <row r="36" spans="1:4" ht="41.4">
       <c r="A36" s="53" t="s">
         <v>310</v>
       </c>
@@ -57363,7 +57361,7 @@
         <v>='D3'!D8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.4" customHeight="1">
+    <row r="41" spans="1:4" ht="27.45" customHeight="1">
       <c r="A41" s="52"/>
       <c r="B41" s="50" t="s">
         <v>438</v>
@@ -57377,7 +57375,7 @@
         <v>='D3'!A9</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="27.6">
       <c r="A42" s="52" t="s">
         <v>190</v>
       </c>
@@ -57393,7 +57391,7 @@
         <v>='D3'!D9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27.75">
+    <row r="43" spans="1:4" ht="27.6">
       <c r="A43" s="52" t="s">
         <v>193</v>
       </c>
@@ -57425,7 +57423,7 @@
         <v>='D3'!D13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.75">
+    <row r="45" spans="1:4" ht="27.6">
       <c r="A45" s="52" t="s">
         <v>195</v>
       </c>
@@ -57503,7 +57501,7 @@
         <v>='D3'!D17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="27.75">
+    <row r="50" spans="1:4" ht="27.6">
       <c r="A50" s="52" t="s">
         <v>198</v>
       </c>
@@ -57519,7 +57517,7 @@
         <v>='D3'!D18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="27.75">
+    <row r="51" spans="1:4" ht="27.6">
       <c r="A51" s="52"/>
       <c r="B51" s="50" t="s">
         <v>448</v>
@@ -57613,7 +57611,7 @@
         <v>='D3'!D27</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="27.75">
+    <row r="57" spans="1:4" ht="27.6">
       <c r="A57" s="52" t="s">
         <v>207</v>
       </c>
@@ -57629,7 +57627,7 @@
         <v>='D3'!D28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="41.65">
+    <row r="58" spans="1:4" ht="41.4">
       <c r="A58" s="52" t="s">
         <v>208</v>
       </c>
@@ -57677,7 +57675,7 @@
         <v>='D3'!D31</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26.75" customHeight="1">
+    <row r="61" spans="1:4" ht="26.7" customHeight="1">
       <c r="A61" s="52"/>
       <c r="B61" s="50" t="s">
         <v>458</v>
@@ -57691,7 +57689,7 @@
         <v>='D3'!A32</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="27.75">
+    <row r="62" spans="1:4" ht="27.6">
       <c r="A62" s="52" t="s">
         <v>211</v>
       </c>
@@ -57769,7 +57767,7 @@
         <v>='D5'!D5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27.75">
+    <row r="67" spans="1:4" ht="27.6">
       <c r="A67" s="52" t="s">
         <v>219</v>
       </c>
@@ -57785,7 +57783,7 @@
         <v>='D5'!D6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27.75">
+    <row r="68" spans="1:4" ht="27.6">
       <c r="A68" s="52" t="s">
         <v>220</v>
       </c>
@@ -57801,7 +57799,7 @@
         <v>='D5'!D7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="27.75">
+    <row r="69" spans="1:4" ht="27.6">
       <c r="A69" s="52" t="s">
         <v>221</v>
       </c>
@@ -57817,7 +57815,7 @@
         <v>='D5'!D8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27.75">
+    <row r="70" spans="1:4" ht="27.6">
       <c r="A70" s="52" t="s">
         <v>222</v>
       </c>
@@ -57865,7 +57863,7 @@
         <v>='D5'!D11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="27.75">
+    <row r="73" spans="1:4" ht="27.6">
       <c r="A73" s="53" t="s">
         <v>311</v>
       </c>
@@ -57881,7 +57879,7 @@
         <v>='D6'!B4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="27.75">
+    <row r="74" spans="1:4" ht="27.6">
       <c r="A74" s="53" t="s">
         <v>312</v>
       </c>
@@ -57897,7 +57895,7 @@
         <v>='D6'!C4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27.75">
+    <row r="75" spans="1:4" ht="27.6">
       <c r="A75" s="53" t="s">
         <v>313</v>
       </c>
@@ -57913,7 +57911,7 @@
         <v>='D6'!B7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="27.75">
+    <row r="76" spans="1:4" ht="27.6">
       <c r="A76" s="53" t="s">
         <v>314</v>
       </c>
@@ -57929,7 +57927,7 @@
         <v>='D6'!C7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="27.75">
+    <row r="77" spans="1:4" ht="27.6">
       <c r="A77" s="53" t="s">
         <v>315</v>
       </c>
@@ -57945,7 +57943,7 @@
         <v>='D6'!B12</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.75">
+    <row r="78" spans="1:4" ht="27.6">
       <c r="A78" s="53" t="s">
         <v>316</v>
       </c>
@@ -58020,17 +58018,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="44.46484375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.46484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.9296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="54.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.1328125" style="4"/>
+    <col min="1" max="1" width="44.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="54.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -58855,12 +58853,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="37.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="6.265625" style="1"/>
-    <col min="6" max="16384" width="6.265625" style="4"/>
+    <col min="1" max="1" width="37.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6.21875" style="1"/>
+    <col min="6" max="16384" width="6.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -58886,7 +58884,7 @@
     <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="27.75" hidden="1">
+    <row r="5" spans="1:2" ht="27.6" hidden="1">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -58895,7 +58893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27.75">
+    <row r="6" spans="1:2" ht="27.6">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>

--- a/测试文件及部分代码逻辑/test2.xlsx
+++ b/测试文件及部分代码逻辑/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\allproject\ixbrl vue2\testproject\测试文件及部分代码逻辑\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF2A51-AE80-4219-911C-A3B2F07D8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7BCC1-CD48-4590-BD80-18892F90AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__IRD_TC_Preliminary Edition" sheetId="23" r:id="rId1"/>
@@ -20,28 +20,29 @@
     <sheet name="__Mandatory" sheetId="24" r:id="rId5"/>
     <sheet name="__InfoSchema" sheetId="25" r:id="rId6"/>
     <sheet name="__XbrlMatch" sheetId="16" r:id="rId7"/>
-    <sheet name="A" sheetId="1" r:id="rId8"/>
-    <sheet name="A2" sheetId="2" r:id="rId9"/>
-    <sheet name="B1" sheetId="3" r:id="rId10"/>
-    <sheet name="B2" sheetId="4" r:id="rId11"/>
-    <sheet name="B3" sheetId="5" r:id="rId12"/>
-    <sheet name="C" sheetId="6" r:id="rId13"/>
-    <sheet name="C2" sheetId="7" r:id="rId14"/>
-    <sheet name="C3" sheetId="8" r:id="rId15"/>
-    <sheet name="D1" sheetId="9" r:id="rId16"/>
-    <sheet name="D2" sheetId="10" r:id="rId17"/>
-    <sheet name="D3" sheetId="11" r:id="rId18"/>
-    <sheet name="D4" sheetId="12" r:id="rId19"/>
-    <sheet name="D5" sheetId="13" r:id="rId20"/>
-    <sheet name="D6" sheetId="14" r:id="rId21"/>
-    <sheet name="D7" sheetId="15" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId8"/>
+    <sheet name="A" sheetId="1" r:id="rId9"/>
+    <sheet name="A2" sheetId="2" r:id="rId10"/>
+    <sheet name="B1" sheetId="3" r:id="rId11"/>
+    <sheet name="B2" sheetId="4" r:id="rId12"/>
+    <sheet name="B3" sheetId="5" r:id="rId13"/>
+    <sheet name="C" sheetId="6" r:id="rId14"/>
+    <sheet name="C2" sheetId="7" r:id="rId15"/>
+    <sheet name="C3" sheetId="8" r:id="rId16"/>
+    <sheet name="D1" sheetId="9" r:id="rId17"/>
+    <sheet name="D2" sheetId="10" r:id="rId18"/>
+    <sheet name="D3" sheetId="11" r:id="rId19"/>
+    <sheet name="D4" sheetId="12" r:id="rId20"/>
+    <sheet name="D5" sheetId="13" r:id="rId21"/>
+    <sheet name="D6" sheetId="14" r:id="rId22"/>
+    <sheet name="D7" sheetId="15" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">__InfoSchema!$B$1:$E$33</definedName>
@@ -20115,6 +20116,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="37.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6.21875" style="1"/>
+    <col min="6" max="16384" width="6.21875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="B2" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="41">
+        <f>A!B56</f>
+        <v>-4726845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" hidden="1">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6">
+        <f ca="1">IF(A!B49&gt;0,IF(A!B49&lt;&gt;A!B50,MIN(A!B50,-B3),MIN(A!B49,-B3)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27.6">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6">
+        <f ca="1">IF(A!B49&lt;0,IF(A!B49&lt;&gt;A!B50,A!B50,A!B49),0)</f>
+        <v>-20287443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="41">
+        <f ca="1">SUM(B3:B6)</f>
+        <v>-25014288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -20686,7 +20775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
@@ -22194,7 +22283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -22490,7 +22579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -22958,7 +23047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD44"/>
   <sheetViews>
@@ -24097,7 +24186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -24872,7 +24961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P90"/>
   <sheetViews>
@@ -25586,7 +25675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -26049,7 +26138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R58"/>
   <sheetViews>
@@ -27438,432 +27527,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48" xr:uid="{00000000-0002-0000-0A00-000000000000}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" style="4"/>
-    <col min="15" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="6.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18.149999999999999" hidden="1" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" hidden="1">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="18"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" ht="27.6">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="22" t="str">
-        <f>IF(ISBLANK(E2),IF(E8&lt;0,"(Non-taxable)","Disallowable"&amp;CHAR(10)&amp;"/non-deductible"),E2)</f>
-        <v>Disallowable
-/non-deductible</v>
-      </c>
-      <c r="F3" s="22" t="str">
-        <f>"Wholly"&amp;CHAR(10)&amp;"onshore"</f>
-        <v>Wholly
-onshore</v>
-      </c>
-      <c r="G3" s="22" t="str">
-        <f>"Wholly"&amp;CHAR(10)&amp;"offshore"</f>
-        <v>Wholly
-offshore</v>
-      </c>
-      <c r="H3" s="22" t="str">
-        <f>"Amount for"&amp;CHAR(10)&amp;"apportionment"</f>
-        <v>Amount for
-apportionment</v>
-      </c>
-      <c r="I3" s="22" t="str">
-        <f>"Total onshore"&amp;CHAR(10)&amp;"amount"</f>
-        <v>Total onshore
-amount</v>
-      </c>
-      <c r="J3" s="22" t="str">
-        <f>"Total onshore"&amp;CHAR(10)&amp;"amount override"</f>
-        <v>Total onshore
-amount override</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f>"Total offshore"&amp;CHAR(10)&amp;"amount"</f>
-        <v>Total offshore
-amount</v>
-      </c>
-      <c r="L3" s="22" t="str">
-        <f>"Prior year"&amp;CHAR(10)&amp;"Total"</f>
-        <v>Prior year
-Total</v>
-      </c>
-      <c r="M3" s="22" t="str">
-        <f>IF(M8&gt;=0,"Prior year"&amp;CHAR(10)&amp;"Disallowed","Prior year"&amp;CHAR(10)&amp;"Non-taxable")</f>
-        <v>Prior year
-Disallowed</v>
-      </c>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18">
-        <v>28000</v>
-      </c>
-      <c r="E5" s="18">
-        <f>D5</f>
-        <v>28000</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="6">
-        <f>IF(N5=1,0,D5-E5-F5-G5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <f>ROUND(IF(N5=1,0,IF(ISBLANK(J5),H5*(1-$D$14)+F5,J5)),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="6" t="e">
-        <f>IF(N5=1,0,H5-I5+F5+G5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="18">
-        <f>D6</f>
-        <v>1000</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="6">
-        <f>IF(N6=1,0,D6-E6-F6-G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="e">
-        <f>ROUND(IF(N6=1,0,IF(ISBLANK(J6),H6*(1-$D$14)+F6,J6)),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="6" t="e">
-        <f>IF(N6=1,0,H6-I6+F6+G6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.55" customHeight="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.8" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6">
-        <f>IF(SUM(D4:D7)&lt;&gt;'D3'!D16,"CHECK "&amp;SUM(D4:D7)&amp;CHAR(10)&amp;" with "&amp;'D3'!D16&amp;CHAR(10)&amp;" error "&amp;SUM(D4:D7)-'D3'!D16,SUM(D4:D7))</f>
-        <v>29000</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" ref="E8:M8" si="0">SUM(E4:E7)</f>
-        <v>29000</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1">
-      <c r="A10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="L10" s="6">
-        <f>L12-L8</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <f>M12-M8</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="27"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" hidden="1" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="L11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="27"/>
-    </row>
-    <row r="12" spans="1:14" hidden="1">
-      <c r="A12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" hidden="1" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="L13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:14" hidden="1">
-      <c r="A14" s="1" t="e">
-        <f>"Offshore apportionment ratio (based on "&amp;[5]AA!B1&amp;")"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="20" t="e">
-        <f>[5]AA!C56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" ht="12.75" hidden="1" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="27"/>
-    </row>
-    <row r="16" spans="1:14" hidden="1">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="14:14" ht="11.7" customHeight="1">
-      <c r="N17" s="27"/>
-    </row>
-    <row r="18" spans="14:14" ht="15" customHeight="1">
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="14:14" ht="15" customHeight="1">
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" spans="14:14" ht="15" customHeight="1">
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="14:14" ht="15" customHeight="1">
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="14:14" ht="15" customHeight="1">
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="14:14" ht="15" customHeight="1">
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="14:14" ht="15" customHeight="1">
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="14:14" ht="15" customHeight="1">
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="14:14" ht="15" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30817,6 +30480,432 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="4"/>
+    <col min="15" max="18" width="7" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="6.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.149999999999999" hidden="1" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="18"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" ht="27.6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>IF(ISBLANK(E2),IF(E8&lt;0,"(Non-taxable)","Disallowable"&amp;CHAR(10)&amp;"/non-deductible"),E2)</f>
+        <v>Disallowable
+/non-deductible</v>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>"Wholly"&amp;CHAR(10)&amp;"onshore"</f>
+        <v>Wholly
+onshore</v>
+      </c>
+      <c r="G3" s="22" t="str">
+        <f>"Wholly"&amp;CHAR(10)&amp;"offshore"</f>
+        <v>Wholly
+offshore</v>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>"Amount for"&amp;CHAR(10)&amp;"apportionment"</f>
+        <v>Amount for
+apportionment</v>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>"Total onshore"&amp;CHAR(10)&amp;"amount"</f>
+        <v>Total onshore
+amount</v>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>"Total onshore"&amp;CHAR(10)&amp;"amount override"</f>
+        <v>Total onshore
+amount override</v>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>"Total offshore"&amp;CHAR(10)&amp;"amount"</f>
+        <v>Total offshore
+amount</v>
+      </c>
+      <c r="L3" s="22" t="str">
+        <f>"Prior year"&amp;CHAR(10)&amp;"Total"</f>
+        <v>Prior year
+Total</v>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f>IF(M8&gt;=0,"Prior year"&amp;CHAR(10)&amp;"Disallowed","Prior year"&amp;CHAR(10)&amp;"Non-taxable")</f>
+        <v>Prior year
+Disallowed</v>
+      </c>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="18">
+        <v>28000</v>
+      </c>
+      <c r="E5" s="18">
+        <f>D5</f>
+        <v>28000</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="6">
+        <f>IF(N5=1,0,D5-E5-F5-G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="e">
+        <f>ROUND(IF(N5=1,0,IF(ISBLANK(J5),H5*(1-$D$14)+F5,J5)),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="6" t="e">
+        <f>IF(N5=1,0,H5-I5+F5+G5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="18">
+        <f>D6</f>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="6">
+        <f>IF(N6=1,0,D6-E6-F6-G6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="e">
+        <f>ROUND(IF(N6=1,0,IF(ISBLANK(J6),H6*(1-$D$14)+F6,J6)),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="6" t="e">
+        <f>IF(N6=1,0,H6-I6+F6+G6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.55" customHeight="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.8" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6">
+        <f>IF(SUM(D4:D7)&lt;&gt;'D3'!D16,"CHECK "&amp;SUM(D4:D7)&amp;CHAR(10)&amp;" with "&amp;'D3'!D16&amp;CHAR(10)&amp;" error "&amp;SUM(D4:D7)-'D3'!D16,SUM(D4:D7))</f>
+        <v>29000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:M8" si="0">SUM(E4:E7)</f>
+        <v>29000</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1">
+      <c r="A10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="L10" s="6">
+        <f>L12-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f>M12-M8</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" hidden="1" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="L11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="1:14" hidden="1">
+      <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" hidden="1" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="L13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" hidden="1">
+      <c r="A14" s="1" t="e">
+        <f>"Offshore apportionment ratio (based on "&amp;[5]AA!B1&amp;")"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="20" t="e">
+        <f>[5]AA!C56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" hidden="1" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" hidden="1">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="14:14" ht="11.7" customHeight="1">
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" spans="14:14" ht="15" customHeight="1">
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="14:14" ht="15" customHeight="1">
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="14:14" ht="15" customHeight="1">
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="14:14" ht="15" customHeight="1">
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="14:14" ht="15" customHeight="1">
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="14:14" ht="15" customHeight="1">
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="14:14" ht="15" customHeight="1">
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="14:14" ht="15" customHeight="1">
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="14:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
@@ -31441,7 +31530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -31917,7 +32006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AG60"/>
   <sheetViews>
@@ -55881,7 +55970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91AAFD8-6C58-4EAC-B126-4ABCB0DB5972}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -58011,6 +58100,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49AF77-CEAA-49B7-A9D7-3D1C07889D3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
@@ -58843,92 +58947,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="37.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="6.21875" style="1"/>
-    <col min="6" max="16384" width="6.21875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
-      <c r="B2" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="41">
-        <f>A!B56</f>
-        <v>-4726845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" hidden="1">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6">
-        <f ca="1">IF(A!B49&gt;0,IF(A!B49&lt;&gt;A!B50,MIN(A!B50,-B3),MIN(A!B49,-B3)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6">
-        <f ca="1">IF(A!B49&lt;0,IF(A!B49&lt;&gt;A!B50,A!B50,A!B49),0)</f>
-        <v>-20287443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="41">
-        <f ca="1">SUM(B3:B6)</f>
-        <v>-25014288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>